--- a/Projects/Federal Reserve Data/Aggregated C-A  Diff-in-DiffDAGOLS 2005-12-31 to 2008-09-30.xlsx
+++ b/Projects/Federal Reserve Data/Aggregated C-A  Diff-in-DiffDAGOLS 2005-12-31 to 2008-09-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>FFR</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Constant</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
   <si>
     <t>r2_adj</t>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,10 +449,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,13 +471,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,12 +485,26 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>0.57</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.36</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.66</v>
       </c>
     </row>
